--- a/03.Lecture/lec03.xlsx
+++ b/03.Lecture/lec03.xlsx
@@ -1,31 +1,172 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\finance\03.Lecture\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B41A29-7E01-4DF1-B2C3-5752FC7DFFB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Task01" sheetId="1" r:id="rId1"/>
+    <sheet name="Task02" sheetId="2" r:id="rId2"/>
+    <sheet name="Task03" sheetId="3" r:id="rId3"/>
+    <sheet name="Task04" sheetId="4" r:id="rId4"/>
+    <sheet name="Task05" sheetId="5" r:id="rId5"/>
+    <sheet name="Task06" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="31">
+  <si>
+    <t>. Пусть есть проект с денежными потоками следующего вида</t>
+  </si>
+  <si>
+    <t>год</t>
+  </si>
+  <si>
+    <t>денежный поток</t>
+  </si>
+  <si>
+    <t>Если стоимость денег для инвестора (ставка дисконтирования) равна 10% годовых, то какова будет чистая приведенная стоимость (NPV) этого проекта?</t>
+  </si>
+  <si>
+    <t>Решение. Используем для ответа на этот вопрос формулу NPV. Продисконтируем каждую составляющую денежного потока по ставке 10%, и просуммируем эти дисконтированные величины:</t>
+  </si>
+  <si>
+    <t>ставка</t>
+  </si>
+  <si>
+    <t>Дисконтирующий множитель</t>
+  </si>
+  <si>
+    <t>Дисконтированные ден. потоки</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>Рассчитать NPV проекта, описанного денежными потоками из задачи 1, используя для этого только встроенные функции Excel.</t>
+  </si>
+  <si>
+    <t>Дисконт ден.потоки из предыдущего</t>
+  </si>
+  <si>
+    <t>NPV ЧПС(кроме_0_значения)+0_значение !!!</t>
+  </si>
+  <si>
+    <t>Определить NPV проекта с нерегулярными денежными потоками</t>
+  </si>
+  <si>
+    <t>Решение. В случае нерегулярных денежных потоков (то есть тех, которые происходят через неравные промежутки времени) мы, к сожалению, не можем применить готовую функцию ЧПС, и будем считать сами, используя дисконтирование каждого потока:</t>
+  </si>
+  <si>
+    <t>дисконт. денеж.потоки</t>
+  </si>
+  <si>
+    <t>Найти NPV проекта из задачи 1, если ставка дисконтирования (стоимость денег для инвестора) уменьшается со временем по следующему графику:</t>
+  </si>
+  <si>
+    <t>Решение. Применить готовую формулу ЧПС мы не сможем, так как в нее можно передать только один параметр ставки дисконтирования, а здесь их много. Поэтому сделаем расчет аналогично задаче 1, только в расчете дисконтирующих множителей будут учитываться разные значения ставок</t>
+  </si>
+  <si>
+    <t>Для проекта из задачи 1 рассчитать внутреннюю норму доходности</t>
+  </si>
+  <si>
+    <t>Решение. Можно найти показатель IRR двумя способами: 1) подобрать ставку дисконтирования, при которой NPV обращается в 0, «вручную» либо 2) воспользоваться встроенной в Excel функцией ВСД(), название которой является аббревиатурой от «Внутренняя Ставка Доходности». Результаты, как и следовало ожидать, будут идентичны:</t>
+  </si>
+  <si>
+    <t>IRR подбором</t>
+  </si>
+  <si>
+    <t>IRR с помощью функции ВСД ()</t>
+  </si>
+  <si>
+    <t>MIRR с помощью функции МВСД ()</t>
+  </si>
+  <si>
+    <t>Для проекта из задачи 1 найти срок окупаемости (обыкновенный и дисконтированный), индекс доходности и модифицированную внутреннюю норму доходности для ставки рефинансирования 10% и ставки финансирования 12% годовых.</t>
+  </si>
+  <si>
+    <t>Решение. Для расчета сроков окупаемости у нас уже есть денежные потоки из задачи 1, поэтому мы их суммируем, пока не получим величину больше 0. Для обыкновенного срока окупаемости получаем 5 лет, для дисконтированного – 6 лет. Зная NPV = 29.2 и инвестиции в размере 100 ед, можно посчитать PI = 1 + 29.2/100 = 1.292. MIRR найдем с помощью встроенной функции Excel, которая называется МВСД(). В результате получим значение 14,1%.</t>
+  </si>
+  <si>
+    <t>PP (по денежным потокам)</t>
+  </si>
+  <si>
+    <t>5 лет окупаемости</t>
+  </si>
+  <si>
+    <t>PP (по дисконтированным денежным потокам)</t>
+  </si>
+  <si>
+    <t>7 лет окупаемости</t>
+  </si>
+  <si>
+    <t>IPP индекс доходности</t>
+  </si>
+  <si>
+    <t>на каждый вложенный рубль заработаем один рубль</t>
+  </si>
+  <si>
+    <t>например взяли в банке кредит под 12% и вложили под депозит 8%</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
+    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;₽&quot;;[Red]\-#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ _₽"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="0.000%"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -37,7 +178,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,15 +186,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +499,1489 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I16" sqref="A10:I16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>-100</v>
+      </c>
+      <c r="C4" s="2">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2">
+        <v>25</v>
+      </c>
+      <c r="G4" s="2">
+        <v>35</v>
+      </c>
+      <c r="H4" s="2">
+        <v>50</v>
+      </c>
+      <c r="I4" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2">
+        <v>4</v>
+      </c>
+      <c r="G10" s="2">
+        <v>5</v>
+      </c>
+      <c r="H10" s="2">
+        <v>6</v>
+      </c>
+      <c r="I10" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2">
+        <v>-100</v>
+      </c>
+      <c r="C11" s="2">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2">
+        <v>15</v>
+      </c>
+      <c r="E11" s="2">
+        <v>20</v>
+      </c>
+      <c r="F11" s="2">
+        <v>25</v>
+      </c>
+      <c r="G11" s="2">
+        <v>35</v>
+      </c>
+      <c r="H11" s="2">
+        <v>50</v>
+      </c>
+      <c r="I11" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <f>B13/(1+C12)</f>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:I13" si="0">C13/(1+D12)</f>
+        <v>0.82644628099173545</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.75131480090157765</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.68301345536507052</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.62092132305915493</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.56447393005377711</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.51315811823070645</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2">
+        <f>B13*B11</f>
+        <v>-100</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" ref="C14:I14" si="1">C13*C11</f>
+        <v>9.0909090909090899</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="1"/>
+        <v>12.396694214876032</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="1"/>
+        <v>15.026296018031553</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="1"/>
+        <v>17.075336384126764</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="1"/>
+        <v>21.732246307070422</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="1"/>
+        <v>28.223696502688856</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="1"/>
+        <v>25.657905911535323</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="2">
+        <f t="shared" ref="B15:I15" si="2">B11/(1+B12)^B10</f>
+        <v>-100</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="2"/>
+        <v>9.0909090909090899</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="2"/>
+        <v>12.396694214876032</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="2"/>
+        <v>15.02629601803155</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="2"/>
+        <v>17.075336384126764</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="2"/>
+        <v>21.732246307070422</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="2"/>
+        <v>28.22369650268886</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="2"/>
+        <v>25.657905911535323</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="8">
+        <f>SUM(B15:I15)</f>
+        <v>29.20308442923805</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D242DF-8CB9-407B-B4CF-80E4F9143F6D}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>-100</v>
+      </c>
+      <c r="C4" s="2">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2">
+        <v>25</v>
+      </c>
+      <c r="G4" s="2">
+        <v>35</v>
+      </c>
+      <c r="H4" s="2">
+        <v>50</v>
+      </c>
+      <c r="I4" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="6">
+        <f>NPV(10%,C4,D4,E4,F4,G4,H4,I4)+B4</f>
+        <v>29.203084429238032</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BF15D5-A214-46A4-82D6-34AA4010635B}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>-100</v>
+      </c>
+      <c r="C4" s="2">
+        <v>40</v>
+      </c>
+      <c r="D4" s="2">
+        <v>40</v>
+      </c>
+      <c r="E4" s="2">
+        <v>50</v>
+      </c>
+      <c r="F4" s="2">
+        <v>70</v>
+      </c>
+      <c r="G4" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2">
+        <v>6</v>
+      </c>
+      <c r="G8" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2">
+        <v>-100</v>
+      </c>
+      <c r="C9" s="2">
+        <v>40</v>
+      </c>
+      <c r="D9" s="2">
+        <v>40</v>
+      </c>
+      <c r="E9" s="2">
+        <v>50</v>
+      </c>
+      <c r="F9" s="2">
+        <v>70</v>
+      </c>
+      <c r="G9" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="4">
+        <f>B9/(1+10%)^B8</f>
+        <v>-100</v>
+      </c>
+      <c r="C10" s="4">
+        <f t="shared" ref="C10:G10" si="0">C9/(1+10%)^C8</f>
+        <v>36.36363636363636</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>33.057851239669418</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="0"/>
+        <v>34.150672768253528</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="0"/>
+        <v>39.513175103764404</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="0"/>
+        <v>35.921068276149448</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5">
+        <f>SUM(B10:G10)</f>
+        <v>79.006403751473158</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B496AA5C-B1F9-4FB7-B313-BA7472B1A808}">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>-100</v>
+      </c>
+      <c r="C4" s="2">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2">
+        <v>25</v>
+      </c>
+      <c r="G4" s="2">
+        <v>35</v>
+      </c>
+      <c r="H4" s="2">
+        <v>50</v>
+      </c>
+      <c r="I4" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0.115</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0.105</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G5" s="10">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="I5" s="10">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3</v>
+      </c>
+      <c r="F9" s="2">
+        <v>4</v>
+      </c>
+      <c r="G9" s="2">
+        <v>5</v>
+      </c>
+      <c r="H9" s="2">
+        <v>6</v>
+      </c>
+      <c r="I9" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2">
+        <v>-100</v>
+      </c>
+      <c r="C10" s="2">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2">
+        <v>15</v>
+      </c>
+      <c r="E10" s="2">
+        <v>20</v>
+      </c>
+      <c r="F10" s="2">
+        <v>25</v>
+      </c>
+      <c r="G10" s="2">
+        <v>35</v>
+      </c>
+      <c r="H10" s="2">
+        <v>50</v>
+      </c>
+      <c r="I10" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0.115</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0.105</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G11" s="10">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="I11" s="10">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <f>B12/(1+C11)</f>
+        <v>0.89686098654708524</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" ref="D12:I12" si="0">C12/(1+D11)</f>
+        <v>0.80798287076313979</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.73120621788519435</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.66473292535017658</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.60706203228326627</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.55693764429657455</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.51330658460513789</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="2">
+        <f>B10*B12</f>
+        <v>-100</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" ref="C13:I13" si="1">C10*C12</f>
+        <v>8.968609865470853</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="1"/>
+        <v>12.119743061447096</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>14.624124357703888</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>16.618323133754416</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>21.247171129914321</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>27.846882214828728</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="1"/>
+        <v>25.665329230256894</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="8">
+        <f>SUM(B13:I13)</f>
+        <v>27.0901829933762</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EAC59E6-3146-4891-8984-150A18687095}">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>-100</v>
+      </c>
+      <c r="C4" s="2">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2">
+        <v>25</v>
+      </c>
+      <c r="G4" s="2">
+        <v>35</v>
+      </c>
+      <c r="H4" s="2">
+        <v>50</v>
+      </c>
+      <c r="I4" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2">
+        <v>4</v>
+      </c>
+      <c r="G8" s="2">
+        <v>5</v>
+      </c>
+      <c r="H8" s="2">
+        <v>6</v>
+      </c>
+      <c r="I8" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2">
+        <v>-100</v>
+      </c>
+      <c r="C9" s="2">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2">
+        <v>15</v>
+      </c>
+      <c r="E9" s="2">
+        <v>20</v>
+      </c>
+      <c r="F9" s="2">
+        <v>25</v>
+      </c>
+      <c r="G9" s="2">
+        <v>35</v>
+      </c>
+      <c r="H9" s="2">
+        <v>50</v>
+      </c>
+      <c r="I9" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3">
+        <f>$B$15</f>
+        <v>0.16325740305585576</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" ref="C10:I10" si="0">$B$15</f>
+        <v>0.16325740305585576</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>0.16325740305585576</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="0"/>
+        <v>0.16325740305585576</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="0"/>
+        <v>0.16325740305585576</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="0"/>
+        <v>0.16325740305585576</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="0"/>
+        <v>0.16325740305585576</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" si="0"/>
+        <v>0.16325740305585576</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <f>B11/(1+C10)</f>
+        <v>0.85965496318615153</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" ref="D11:I11" si="1">C11/(1+D10)</f>
+        <v>0.73900665573058355</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.6352907394263958</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.54613083721410127</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.46948408476011039</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.40359432360093678</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.34695186339730305</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <f>B11*B9</f>
+        <v>-100</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" ref="C12:I12" si="2">C11*C9</f>
+        <v>8.5965496318615156</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="2"/>
+        <v>11.085099835958752</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="2"/>
+        <v>12.705814788527917</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="2"/>
+        <v>13.653270930352532</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="2"/>
+        <v>16.431942966603863</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="2"/>
+        <v>20.179716180046839</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="2"/>
+        <v>17.347593169865153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="2">
+        <f t="shared" ref="B13:I13" si="3">B9/(1+B10)^B8</f>
+        <v>-100</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="3"/>
+        <v>8.5965496318615156</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="3"/>
+        <v>11.085099835958754</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="3"/>
+        <v>12.705814788527919</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="3"/>
+        <v>13.653270930352535</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="3"/>
+        <v>16.431942966603867</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="3"/>
+        <v>20.179716180046842</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="3"/>
+        <v>17.347593169865156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="8">
+        <f>SUM(B13:I13)</f>
+        <v>-1.249678340187188E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="11">
+        <v>0.16325740305585576</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="11">
+        <f>IRR(B9:I9)</f>
+        <v>0.16325737061894086</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91698C8D-2F89-4740-9DD9-31932DBD9923}">
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="54.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>-100</v>
+      </c>
+      <c r="C4" s="2">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2">
+        <v>25</v>
+      </c>
+      <c r="G4" s="2">
+        <v>35</v>
+      </c>
+      <c r="H4" s="2">
+        <v>50</v>
+      </c>
+      <c r="I4" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2">
+        <v>4</v>
+      </c>
+      <c r="G8" s="2">
+        <v>5</v>
+      </c>
+      <c r="H8" s="2">
+        <v>6</v>
+      </c>
+      <c r="I8" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2">
+        <v>-100</v>
+      </c>
+      <c r="C9" s="2">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2">
+        <v>15</v>
+      </c>
+      <c r="E9" s="2">
+        <v>20</v>
+      </c>
+      <c r="F9" s="2">
+        <v>25</v>
+      </c>
+      <c r="G9" s="2">
+        <v>35</v>
+      </c>
+      <c r="H9" s="2">
+        <v>50</v>
+      </c>
+      <c r="I9" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3">
+        <f>$B$14</f>
+        <v>0.16325740305585576</v>
+      </c>
+      <c r="C10" s="3">
+        <f>$B$14</f>
+        <v>0.16325740305585576</v>
+      </c>
+      <c r="D10" s="3">
+        <f>$B$14</f>
+        <v>0.16325740305585576</v>
+      </c>
+      <c r="E10" s="3">
+        <f>$B$14</f>
+        <v>0.16325740305585576</v>
+      </c>
+      <c r="F10" s="3">
+        <f>$B$14</f>
+        <v>0.16325740305585576</v>
+      </c>
+      <c r="G10" s="3">
+        <f>$B$14</f>
+        <v>0.16325740305585576</v>
+      </c>
+      <c r="H10" s="3">
+        <f>$B$14</f>
+        <v>0.16325740305585576</v>
+      </c>
+      <c r="I10" s="3">
+        <f>$B$14</f>
+        <v>0.16325740305585576</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <f>B11/(1+C10)</f>
+        <v>0.85965496318615153</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" ref="D11:I11" si="0">C11/(1+D10)</f>
+        <v>0.73900665573058355</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.6352907394263958</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.54613083721410127</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.46948408476011039</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.40359432360093678</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.34695186339730305</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2">
+        <f t="shared" ref="B12:I12" si="1">B9/(1+B10)^B8</f>
+        <v>-100</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="1"/>
+        <v>8.5965496318615156</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="1"/>
+        <v>11.085099835958754</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="1"/>
+        <v>12.705814788527919</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="1"/>
+        <v>13.653270930352535</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="1"/>
+        <v>16.431942966603867</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="1"/>
+        <v>20.179716180046842</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="1"/>
+        <v>17.347593169865156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="8">
+        <f>SUM(B12:I12)</f>
+        <v>-1.249678340187188E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="11">
+        <v>0.16325740305585576</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="11">
+        <f>IRR(B9:I9)</f>
+        <v>0.16325737061894086</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="2">
+        <f>SUM(B9:G9)</f>
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="2">
+        <f>SUM(B12:I12)+0.001</f>
+        <v>9.8750321659812814E-4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="2">
+        <f>1+B13/(-B9)</f>
+        <v>0.99999987503216603</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="3">
+        <f>MIRR(B9:I9,12%,8%)</f>
+        <v>0.13418998869466425</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>